--- a/homeworks/homework01/messy-project-directory/data/Survey_Data.xlsx
+++ b/homeworks/homework01/messy-project-directory/data/Survey_Data.xlsx
@@ -15,12 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="17">
   <si>
     <t>NA</t>
   </si>
@@ -548,7 +547,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -592,7 +591,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -616,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1485,8 +1484,12 @@
       <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
